--- a/src/docs/Historica.xlsx
+++ b/src/docs/Historica.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="тезисы" sheetId="2" r:id="rId1"/>
     <sheet name="Техника" sheetId="4" r:id="rId2"/>
     <sheet name="1 каменный век" sheetId="3" r:id="rId3"/>
+    <sheet name="Технологии" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
   <si>
     <t>Кликер про исследование мира с каменного века и дальше по эпохам</t>
   </si>
@@ -351,18 +352,137 @@
   </si>
   <si>
     <t>всплывающее окно с информацией. Может включать возможность выбора из нескольких вариантов</t>
+  </si>
+  <si>
+    <t>здоровье</t>
+  </si>
+  <si>
+    <t>Каменный век</t>
+  </si>
+  <si>
+    <t>Копье</t>
+  </si>
+  <si>
+    <t>Топор</t>
+  </si>
+  <si>
+    <t>Костер</t>
+  </si>
+  <si>
+    <t>Полог</t>
+  </si>
+  <si>
+    <t>Хижина</t>
+  </si>
+  <si>
+    <t>Дом</t>
+  </si>
+  <si>
+    <t>Лекарство</t>
+  </si>
+  <si>
+    <t>Одежда</t>
+  </si>
+  <si>
+    <t>Дротик</t>
+  </si>
+  <si>
+    <t>Сеть</t>
+  </si>
+  <si>
+    <t>IQ</t>
+  </si>
+  <si>
+    <t>Технология</t>
+  </si>
+  <si>
+    <t>Эффект</t>
+  </si>
+  <si>
+    <t>1 еда -  "Готовить еду": восстановить 2 здоровья</t>
+  </si>
+  <si>
+    <t>На костре, 1 трава, 1 камень - Готовить лекарство: восстановить 3 здоровья</t>
+  </si>
+  <si>
+    <t>Корзина</t>
+  </si>
+  <si>
+    <t>Эффект сбора еды +1</t>
+  </si>
+  <si>
+    <t>5 еда, 1 шкура, 15 дерева - "Отдых": восстановить 25% здоровья</t>
+  </si>
+  <si>
+    <t>Сумка</t>
+  </si>
+  <si>
+    <t>Сушка</t>
+  </si>
+  <si>
+    <t>Расход еды за действие -0.25</t>
+  </si>
+  <si>
+    <t>Копалка</t>
+  </si>
+  <si>
+    <t>1 сеть - "Поймать": Урон противника -1, суммарно до 3-х раз.</t>
+  </si>
+  <si>
+    <t>50 еды, 50 травы, 10 одежды - "Новая жизнь": население +1</t>
+  </si>
+  <si>
+    <t>Сбор еды</t>
+  </si>
+  <si>
+    <t>Урон</t>
+  </si>
+  <si>
+    <t>Расход еды</t>
+  </si>
+  <si>
+    <t>Сбор дерева</t>
+  </si>
+  <si>
+    <t>Максимум здоровья +50. Автодействие, 1 одежда - "Защита": -1 от урона</t>
+  </si>
+  <si>
+    <t>Снижение урона</t>
+  </si>
+  <si>
+    <t>Сбор камня</t>
+  </si>
+  <si>
+    <t>Сбора древесины +1, Сбор камня +1, Урон +1</t>
+  </si>
+  <si>
+    <t>Авто, 1 копье - "Удар копьем": Урон +1</t>
+  </si>
+  <si>
+    <t>10 еда, 3 кость, 30 дерева - "Отдых": восстановить 100% здоровья</t>
+  </si>
+  <si>
+    <t>Авто, 1 дротик - "Бросок": Урон +1, 10 урона в начале охоты/боя</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,19 +510,239 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -411,20 +751,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,24 +1697,312 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="72.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="J4" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="32"/>
+      <c r="J6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="32"/>
+      <c r="J8" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="32"/>
+      <c r="J15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="32"/>
+      <c r="J16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/src/docs/Historica.xlsx
+++ b/src/docs/Historica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="тезисы" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="150">
   <si>
     <t>Кликер про исследование мира с каменного века и дальше по эпохам</t>
   </si>
@@ -453,9 +453,6 @@
     <t>Сбор камня</t>
   </si>
   <si>
-    <t>Сбора древесины +1, Сбор камня +1, Урон +1</t>
-  </si>
-  <si>
     <t>Авто, 1 копье - "Удар копьем": Урон +1</t>
   </si>
   <si>
@@ -463,6 +460,18 @@
   </si>
   <si>
     <t>Авто, 1 дротик - "Бросок": Урон +1, 10 урона в начале охоты/боя</t>
+  </si>
+  <si>
+    <t>Сбора древесины +1, Урон +1</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>Максимум здоровья</t>
+  </si>
+  <si>
+    <t>1..4</t>
   </si>
 </sst>
 </file>
@@ -517,21 +526,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -555,16 +558,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -577,46 +578,14 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -630,6 +599,96 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -637,21 +696,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -666,9 +755,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -678,38 +765,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -724,34 +783,16 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -766,85 +807,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1554,7 +1593,7 @@
   <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B19"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,282 +1769,387 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K16"/>
+  <dimension ref="B1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="72.7109375" customWidth="1"/>
+    <col min="8" max="9" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="32" t="s">
+    <row r="2" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J2" t="s">
+      <c r="X2" t="s">
         <v>123</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AB2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
-      <c r="J3" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="X3" t="s">
         <v>114</v>
       </c>
-      <c r="K3" t="s">
+      <c r="AA3" s="7"/>
+      <c r="AB3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="X4" t="s">
         <v>133</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" t="s">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="X5" t="s">
         <v>118</v>
       </c>
-      <c r="K5" t="s">
+      <c r="AA5" s="7"/>
+      <c r="AB5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="32"/>
-      <c r="J6" t="s">
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="X6" t="s">
         <v>115</v>
       </c>
-      <c r="K6" t="s">
+      <c r="AA6" s="7"/>
+      <c r="AB6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33" t="s">
+      <c r="R7" s="23"/>
+      <c r="S7" s="25"/>
+      <c r="X7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I8" s="32"/>
-      <c r="J8" s="18" t="s">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="X8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C9">
+      <c r="H9">
         <v>1</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" t="s">
+      <c r="J9" s="31">
+        <v>3</v>
+      </c>
+      <c r="X9" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA10" s="7"/>
+      <c r="AB10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="31">
+        <v>2</v>
+      </c>
+      <c r="X12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA12" s="7"/>
+      <c r="AB12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11">
+      <c r="J13" s="31">
         <v>1</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="X13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" t="s">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA14" s="7"/>
+      <c r="AB14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I15" s="32"/>
-      <c r="J15" t="s">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="J15" s="31">
+        <v>150</v>
+      </c>
+      <c r="X15" t="s">
         <v>121</v>
       </c>
-      <c r="K15" t="s">
+      <c r="AA15" s="7"/>
+      <c r="AB15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I16" s="32"/>
-      <c r="J16" t="s">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="J16" s="31"/>
+      <c r="X16" t="s">
         <v>117</v>
       </c>
-      <c r="K16" t="s">
+      <c r="AA16" s="7"/>
+      <c r="AB16" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/docs/Historica.xlsx
+++ b/src/docs/Historica.xlsx
@@ -1772,7 +1772,7 @@
   <dimension ref="B1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
